--- a/r4-naboto-main/StructureDefinition-naboto-note.xlsx
+++ b/r4-naboto-main/StructureDefinition-naboto-note.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T13:35:15+00:00</t>
+    <t>2022-11-03T13:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
